--- a/Plan_de_Trabajo/CalendarioActividades.xlsx
+++ b/Plan_de_Trabajo/CalendarioActividades.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A13003862\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Verano_Uli\POO\RepositorioGitHub\TechnoShop\Plan_de_Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86A3E0-CF03-468C-B81C-8C2BE8A70406}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun 2018" sheetId="7" r:id="rId1"/>
-    <sheet name="Jul 2018" sheetId="8" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Jul 2018'!$B$1:$H$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Jun 2018'!$B$1:$H$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Jun 2018'!$B$1:$H$17</definedName>
     <definedName name="Type">'[1]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>SUN</t>
   </si>
@@ -63,13 +62,31 @@
   </si>
   <si>
     <t>July 2018</t>
+  </si>
+  <si>
+    <t>Definicion de la temática del proyecto.   Asignacion de tareas</t>
+  </si>
+  <si>
+    <t>Primera entrega</t>
+  </si>
+  <si>
+    <t>Segunda entrega</t>
+  </si>
+  <si>
+    <t>Entrega final</t>
+  </si>
+  <si>
+    <t>Reunion en la escuela para la refinacion de las tareas realizadas.</t>
+  </si>
+  <si>
+    <t>Reunion en la escuela para continuar con las tareas asignadas.   Empezar la codificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,8 +148,14 @@
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +182,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -236,17 +265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="5" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -283,6 +301,28 @@
       <top/>
       <bottom style="thin">
         <color theme="5" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,76 +341,79 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -397,7 +440,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -701,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,15 +763,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -754,479 +797,262 @@
       </c>
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25">
         <v>1</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="25">
         <f t="shared" ref="H3" si="0">G3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="25">
         <f>H3+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="25">
         <f>B5+1</f>
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="25">
         <f t="shared" ref="D5:H5" si="1">C5+1</f>
         <v>5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="25">
         <f>H5+1</f>
         <v>10</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>B7+1</f>
         <v>11</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:H7" si="2">C7+1</f>
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+    <row r="8" spans="2:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f>H7+1</f>
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <f>B9+1</f>
         <v>18</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" ref="D9:H9" si="3">C9+1</f>
         <v>19</v>
       </c>
-      <c r="E9" s="7">
-        <f t="shared" si="3"/>
+      <c r="E9" s="6">
+        <f>D9+1</f>
         <v>20</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+    <row r="10" spans="2:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f>H9+1</f>
         <v>24</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <f>B11+1</f>
         <v>25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <f t="shared" ref="D11:F11" si="4">C11+1</f>
         <v>26</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="9">
         <f t="shared" ref="G11" si="5">F11+1</f>
         <v>29</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="9">
         <f t="shared" ref="H11" si="6">G11+1</f>
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:E14" si="7">C14+1</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10">
-    <tabColor theme="5" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="8" width="16.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.75" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:H3" si="0">C3+1</f>
-        <v>3</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <f>H3+1</f>
-        <v>8</v>
-      </c>
-      <c r="C5" s="7">
-        <f>B5+1</f>
-        <v>9</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:H5" si="1">C5+1</f>
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <f>H5+1</f>
-        <v>15</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7+1</f>
-        <v>16</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" ref="D7:H7" si="2">C7+1</f>
-        <v>17</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <f>H7+1</f>
-        <v>22</v>
-      </c>
-      <c r="C9" s="7">
-        <f>B9+1</f>
-        <v>23</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" ref="D9:H9" si="3">C9+1</f>
-        <v>24</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
-        <f>H9+1</f>
-        <v>29</v>
-      </c>
-      <c r="C11" s="11">
-        <f>B11+1</f>
-        <v>30</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" ref="D11" si="4">C11+1</f>
-        <v>31</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="2:8" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
